--- a/data/trans_orig/P6706-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D47038-C650-4780-B418-1CCF637444BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2E6AC0-BAB3-4A7F-B8E0-F416CF47B9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FA44F6E-0E56-446C-BFEF-69DD9F86BF4E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4143C052-0229-4ED8-90E6-07FD81997FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="730">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>25,66%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>22,03%</t>
@@ -88,2119 +88,2146 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>45,28%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>15,65%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2A82BC-A9DD-4112-96F9-9DE685487DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39E9ACA-C637-4402-B6AC-A06812968D9D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2976,7 +3003,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3018,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -3006,13 +3033,13 @@
         <v>24153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -3021,18 +3048,18 @@
         <v>75886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3071,13 @@
         <v>47171</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3059,13 +3086,13 @@
         <v>29377</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3074,13 +3101,13 @@
         <v>76547</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3122,13 @@
         <v>38252</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3110,13 +3137,13 @@
         <v>19437</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -3125,13 +3152,13 @@
         <v>57688</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3173,13 @@
         <v>38579</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -3161,13 +3188,13 @@
         <v>31104</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -3176,13 +3203,13 @@
         <v>69683</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3224,13 @@
         <v>30984</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3212,13 +3239,13 @@
         <v>21287</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3227,13 +3254,13 @@
         <v>52271</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3275,13 @@
         <v>60239</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3263,13 +3290,13 @@
         <v>33842</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -3278,13 +3305,13 @@
         <v>94081</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3326,13 @@
         <v>215225</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
@@ -3314,13 +3341,13 @@
         <v>135045</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>331</v>
@@ -3329,18 +3356,18 @@
         <v>350270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3379,13 @@
         <v>78480</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3367,13 +3394,13 @@
         <v>44105</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3382,13 +3409,13 @@
         <v>122585</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3430,13 @@
         <v>41309</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3418,28 +3445,28 @@
         <v>32269</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>73579</v>
+        <v>73578</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3481,13 @@
         <v>74524</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -3469,13 +3496,13 @@
         <v>48158</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -3484,13 +3511,13 @@
         <v>122682</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3532,13 @@
         <v>83839</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -3520,28 +3547,28 @@
         <v>60176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
       </c>
       <c r="N19" s="7">
-        <v>144015</v>
+        <v>144014</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3583,13 @@
         <v>128520</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -3571,13 +3598,13 @@
         <v>82556</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -3586,13 +3613,13 @@
         <v>211077</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3634,13 @@
         <v>406672</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>242</v>
@@ -3622,33 +3649,33 @@
         <v>267264</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>616</v>
       </c>
       <c r="N21" s="7">
-        <v>673937</v>
+        <v>673936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3660,13 +3687,13 @@
         <v>53100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3675,13 +3702,13 @@
         <v>30907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -3690,13 +3717,13 @@
         <v>84008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3738,13 @@
         <v>29150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3726,13 +3753,13 @@
         <v>26037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3741,13 +3768,13 @@
         <v>55188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3789,13 @@
         <v>52335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -3777,13 +3804,13 @@
         <v>41987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -3792,13 +3819,13 @@
         <v>94322</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3840,13 @@
         <v>70566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3828,13 +3855,13 @@
         <v>30375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -3843,13 +3870,13 @@
         <v>100941</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3891,13 @@
         <v>115074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -3879,13 +3906,13 @@
         <v>82955</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>177</v>
@@ -3894,13 +3921,13 @@
         <v>198029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3942,13 @@
         <v>320225</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -3930,13 +3957,13 @@
         <v>212262</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>480</v>
@@ -3945,18 +3972,18 @@
         <v>532488</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3995,13 @@
         <v>64436</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -3983,13 +4010,13 @@
         <v>43970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -3998,13 +4025,13 @@
         <v>108406</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4046,13 @@
         <v>46468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4034,13 +4061,13 @@
         <v>29458</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -4052,7 +4079,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>208</v>
@@ -4223,13 +4250,13 @@
         <v>413091</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -4238,13 +4265,13 @@
         <v>300438</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>686</v>
@@ -4253,13 +4280,13 @@
         <v>713529</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,7 +4360,7 @@
         <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>105</v>
@@ -4342,13 +4369,13 @@
         <v>111852</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>255</v>
@@ -4357,13 +4384,13 @@
         <v>272538</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4405,13 @@
         <v>280786</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>181</v>
@@ -4393,13 +4420,13 @@
         <v>196190</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>451</v>
@@ -4408,13 +4435,13 @@
         <v>476976</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4456,13 @@
         <v>299887</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>165</v>
@@ -4444,13 +4471,13 @@
         <v>177644</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="M37" s="7">
         <v>447</v>
@@ -4459,13 +4486,13 @@
         <v>477531</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4507,13 @@
         <v>409124</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>275</v>
@@ -4495,13 +4522,13 @@
         <v>299795</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>651</v>
@@ -4510,13 +4537,13 @@
         <v>708919</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4558,13 @@
         <v>1406946</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>867</v>
@@ -4546,13 +4573,13 @@
         <v>939162</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>2188</v>
@@ -4561,18 +4588,18 @@
         <v>2346108</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F554FDE5-EE5C-4ED9-8191-4F6FBD0089E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59901CC2-C131-4DBA-9255-900204477B69}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,13 +4744,13 @@
         <v>9422</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4732,13 +4759,13 @@
         <v>6112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4747,13 +4774,13 @@
         <v>15534</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4795,13 @@
         <v>8064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4783,13 +4810,13 @@
         <v>5276</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4798,13 +4825,13 @@
         <v>13339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4846,13 @@
         <v>1980</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4834,13 +4861,13 @@
         <v>9533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4849,13 +4876,13 @@
         <v>11513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4897,13 @@
         <v>13191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4885,13 +4912,13 @@
         <v>4575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4900,13 +4927,13 @@
         <v>17766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4948,13 @@
         <v>11364</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4936,13 +4963,13 @@
         <v>4395</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4951,13 +4978,13 @@
         <v>15760</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4999,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4987,13 +5014,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -5002,18 +5029,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5025,13 +5052,13 @@
         <v>36031</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5040,13 +5067,13 @@
         <v>24171</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5055,13 +5082,13 @@
         <v>60202</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5103,13 @@
         <v>33519</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -5091,13 +5118,13 @@
         <v>31198</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -5106,13 +5133,13 @@
         <v>64717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5154,13 @@
         <v>48500</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5142,13 +5169,13 @@
         <v>30933</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -5157,13 +5184,13 @@
         <v>79433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5205,13 @@
         <v>43081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5193,13 +5220,13 @@
         <v>27554</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5208,13 +5235,13 @@
         <v>70636</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5256,13 @@
         <v>38138</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5244,13 +5271,13 @@
         <v>23621</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5259,13 +5286,13 @@
         <v>61759</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5307,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5295,13 +5322,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -5310,18 +5337,18 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5333,10 +5360,10 @@
         <v>82910</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>363</v>
@@ -5354,7 +5381,7 @@
         <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -5363,13 +5390,13 @@
         <v>123661</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5411,13 @@
         <v>75411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5420,7 +5447,7 @@
         <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5462,13 @@
         <v>78110</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -5450,13 +5477,13 @@
         <v>64233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="M18" s="7">
         <v>132</v>
@@ -5468,10 +5495,10 @@
         <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5615,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5603,13 +5630,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5618,18 +5645,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5671,13 +5698,13 @@
         <v>103686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5719,13 @@
         <v>54948</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>405</v>
+        <v>64</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5707,13 +5734,13 @@
         <v>37339</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -5722,13 +5749,13 @@
         <v>92287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5770,13 @@
         <v>98473</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -5758,13 +5785,13 @@
         <v>72249</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>48</v>
+        <v>417</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="M24" s="7">
         <v>159</v>
@@ -5773,13 +5800,13 @@
         <v>170722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,10 +5821,10 @@
         <v>74372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>422</v>
@@ -5815,7 +5842,7 @@
         <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -5824,13 +5851,13 @@
         <v>126462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +5872,7 @@
         <v>61302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>429</v>
@@ -5896,13 +5923,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5911,13 +5938,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5926,18 +5953,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5964,10 +5991,10 @@
         <v>62165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>262</v>
+        <v>440</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>441</v>
@@ -6021,7 +6048,7 @@
         <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -6030,13 +6057,13 @@
         <v>100574</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6078,13 @@
         <v>79997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H30" s="7">
         <v>66</v>
@@ -6066,13 +6093,13 @@
         <v>68384</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>143</v>
@@ -6081,13 +6108,13 @@
         <v>148382</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>459</v>
+        <v>238</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>461</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6129,13 @@
         <v>72104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -6117,13 +6144,13 @@
         <v>59215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>361</v>
+        <v>461</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -6132,13 +6159,13 @@
         <v>131319</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>430</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6180,13 @@
         <v>90662</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H32" s="7">
         <v>86</v>
@@ -6168,13 +6195,13 @@
         <v>91885</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>176</v>
@@ -6183,13 +6210,13 @@
         <v>182548</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6231,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -6219,13 +6246,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -6234,13 +6261,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6284,13 @@
         <v>304746</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -6272,13 +6299,13 @@
         <v>162160</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M34" s="7">
         <v>441</v>
@@ -6287,13 +6314,13 @@
         <v>466905</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6335,13 @@
         <v>228692</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -6323,13 +6350,13 @@
         <v>154223</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>363</v>
@@ -6338,13 +6365,13 @@
         <v>382914</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6386,13 @@
         <v>307060</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H36" s="7">
         <v>240</v>
@@ -6377,10 +6404,10 @@
         <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>68</v>
       </c>
       <c r="M36" s="7">
         <v>524</v>
@@ -6389,13 +6416,13 @@
         <v>552393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6437,13 @@
         <v>298570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>493</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6425,13 +6452,13 @@
         <v>194739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>495</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>472</v>
@@ -6440,13 +6467,13 @@
         <v>493309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6488,13 @@
         <v>283255</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H38" s="7">
         <v>274</v>
@@ -6476,13 +6503,13 @@
         <v>280717</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M38" s="7">
         <v>536</v>
@@ -6491,13 +6518,13 @@
         <v>563972</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>141</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6539,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -6527,13 +6554,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -6542,18 +6569,18 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6574,7 +6601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8646354-EE35-4CCB-99A1-BE352B4011A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35772B97-C4A5-4C97-A32E-5AE8B1D95081}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6591,7 +6618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6698,13 +6725,13 @@
         <v>8249</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6713,13 +6740,13 @@
         <v>2524</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6728,13 +6755,13 @@
         <v>10773</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6776,13 @@
         <v>1017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6764,13 +6791,13 @@
         <v>1111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>518</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>521</v>
+        <v>33</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6779,13 +6806,13 @@
         <v>2129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>523</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6827,13 @@
         <v>1220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6815,13 +6842,13 @@
         <v>1348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>237</v>
+        <v>523</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6830,13 +6857,13 @@
         <v>2568</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,10 +6881,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>531</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6866,13 +6893,13 @@
         <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6881,13 +6908,13 @@
         <v>720</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6929,13 @@
         <v>4899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6917,13 +6944,13 @@
         <v>2700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6932,13 +6959,13 @@
         <v>7598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6980,13 @@
         <v>15385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6968,13 +6995,13 @@
         <v>8404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -6983,18 +7010,18 @@
         <v>23789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7006,13 +7033,13 @@
         <v>13804</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7021,13 +7048,13 @@
         <v>10632</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -7036,13 +7063,13 @@
         <v>24436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>546</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>548</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7084,13 @@
         <v>14052</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>551</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7072,13 +7099,13 @@
         <v>3909</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7087,13 +7114,13 @@
         <v>17961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>553</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7135,13 @@
         <v>14885</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -7123,13 +7150,13 @@
         <v>19418</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -7138,13 +7165,13 @@
         <v>34303</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7186,13 @@
         <v>10636</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -7174,13 +7201,13 @@
         <v>12504</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -7189,13 +7216,13 @@
         <v>23140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>570</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>571</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7237,13 @@
         <v>21169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -7225,13 +7252,13 @@
         <v>18147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>577</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -7240,13 +7267,13 @@
         <v>39316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7288,13 @@
         <v>74546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -7276,13 +7303,13 @@
         <v>64610</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>154</v>
@@ -7291,18 +7318,18 @@
         <v>139156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7314,13 +7341,13 @@
         <v>46174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7329,13 +7356,13 @@
         <v>25621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -7344,13 +7371,13 @@
         <v>71795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7392,13 @@
         <v>24988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>590</v>
+        <v>50</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -7380,13 +7407,13 @@
         <v>23110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>595</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -7395,13 +7422,13 @@
         <v>48098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>593</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7443,13 @@
         <v>45164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>596</v>
+        <v>496</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -7431,13 +7458,13 @@
         <v>32456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>478</v>
+        <v>335</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -7446,13 +7473,13 @@
         <v>77620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7494,13 @@
         <v>71969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7482,13 +7509,13 @@
         <v>20192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>608</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -7497,13 +7524,13 @@
         <v>92162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7545,13 @@
         <v>23348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7533,13 +7560,13 @@
         <v>27739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>615</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>613</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -7548,13 +7575,13 @@
         <v>51086</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>618</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7596,13 @@
         <v>211642</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -7584,13 +7611,13 @@
         <v>129119</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>308</v>
@@ -7599,18 +7626,18 @@
         <v>340761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7622,13 +7649,13 @@
         <v>24705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -7640,10 +7667,10 @@
         <v>619</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -7652,13 +7679,13 @@
         <v>43059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>624</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>622</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7700,13 @@
         <v>16625</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7688,13 +7715,13 @@
         <v>18840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>628</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -7703,13 +7730,13 @@
         <v>35465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,10 +7751,10 @@
         <v>19312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>634</v>
+        <v>305</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>635</v>
@@ -7742,10 +7769,10 @@
         <v>636</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>254</v>
+        <v>637</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7754,13 +7781,13 @@
         <v>41679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>639</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7802,13 @@
         <v>13581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7790,13 +7817,13 @@
         <v>10168</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -7805,13 +7832,13 @@
         <v>23748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>648</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7853,13 @@
         <v>6883</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>652</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -7841,13 +7868,13 @@
         <v>19767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7856,13 +7883,13 @@
         <v>26650</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7904,13 @@
         <v>81105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -7892,13 +7919,13 @@
         <v>89496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>180</v>
@@ -7907,18 +7934,18 @@
         <v>170601</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7957,13 @@
         <v>51368</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -7945,13 +7972,13 @@
         <v>30551</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M28" s="7">
         <v>86</v>
@@ -7960,13 +7987,13 @@
         <v>81919</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +8008,13 @@
         <v>20981</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>669</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>665</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -7996,13 +8023,13 @@
         <v>11424</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -8011,13 +8038,13 @@
         <v>32405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8059,13 @@
         <v>19336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>668</v>
+        <v>532</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -8047,13 +8074,13 @@
         <v>27308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>614</v>
+        <v>674</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>154</v>
+        <v>675</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -8062,13 +8089,13 @@
         <v>46645</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>678</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>673</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8110,13 @@
         <v>10950</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -8098,13 +8125,13 @@
         <v>15794</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>682</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -8113,13 +8140,13 @@
         <v>26744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>681</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8161,13 @@
         <v>10450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>684</v>
+        <v>355</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -8149,13 +8176,13 @@
         <v>9565</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -8164,13 +8191,13 @@
         <v>20015</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8212,13 @@
         <v>113085</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>128</v>
@@ -8200,13 +8227,13 @@
         <v>94642</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8215,13 +8242,13 @@
         <v>207727</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8265,13 @@
         <v>144300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>692</v>
+        <v>83</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -8253,13 +8280,13 @@
         <v>87683</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>555</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>103</v>
+        <v>698</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -8268,13 +8295,13 @@
         <v>231982</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>512</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8316,13 @@
         <v>77663</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -8304,13 +8331,13 @@
         <v>58394</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M35" s="7">
         <v>160</v>
@@ -8319,13 +8346,13 @@
         <v>136058</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8367,13 @@
         <v>99916</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>706</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -8355,13 +8382,13 @@
         <v>102898</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>708</v>
+        <v>464</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="M36" s="7">
         <v>238</v>
@@ -8370,13 +8397,13 @@
         <v>202815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>516</v>
+        <v>713</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>638</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8418,13 @@
         <v>107136</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>715</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H37" s="7">
         <v>79</v>
@@ -8406,13 +8433,13 @@
         <v>59378</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>38</v>
+        <v>719</v>
       </c>
       <c r="M37" s="7">
         <v>133</v>
@@ -8421,13 +8448,13 @@
         <v>166514</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>96</v>
+        <v>720</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,10 +8472,10 @@
         <v>448</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="H38" s="7">
         <v>93</v>
@@ -8457,13 +8484,13 @@
         <v>77918</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>170</v>
+        <v>726</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="M38" s="7">
         <v>143</v>
@@ -8472,13 +8499,13 @@
         <v>144666</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>719</v>
+        <v>345</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>692</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8520,13 @@
         <v>495763</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8508,13 +8535,13 @@
         <v>386271</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>904</v>
@@ -8523,18 +8550,18 @@
         <v>882034</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6706-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2E6AC0-BAB3-4A7F-B8E0-F416CF47B9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8F3799-6C60-4EFE-BE4D-5775FE6E85B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4143C052-0229-4ED8-90E6-07FD81997FF2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D55A4D0-88DC-4843-B211-7104100D78F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="729">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -76,10 +76,10 @@
     <t>25,66%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>22,03%</t>
@@ -88,16 +88,16 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>45,28%</t>
+    <t>45,85%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,28 +106,28 @@
     <t>10,64%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,2095 +136,2092 @@
     <t>30,31%</t>
   </si>
   <si>
-    <t>19,11%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>44,7%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>16,4%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
   </si>
   <si>
     <t>19,52%</t>
@@ -2639,7 +2636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39E9ACA-C637-4402-B6AC-A06812968D9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FDB71-FF2F-4E75-BBC6-72C5BF0395BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3003,7 +3000,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3015,13 @@
         <v>51733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>21</v>
@@ -3033,13 +3030,13 @@
         <v>24153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -3048,18 +3045,18 @@
         <v>75886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3071,13 +3068,13 @@
         <v>47171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3086,13 +3083,13 @@
         <v>29377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3101,13 +3098,13 @@
         <v>76547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3119,13 @@
         <v>38252</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3137,13 +3134,13 @@
         <v>19437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -3152,13 +3149,13 @@
         <v>57688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3170,13 @@
         <v>38579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -3188,13 +3185,13 @@
         <v>31104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -3203,13 +3200,13 @@
         <v>69683</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3221,13 @@
         <v>30984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3239,13 +3236,13 @@
         <v>21287</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -3254,13 +3251,13 @@
         <v>52271</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3272,13 @@
         <v>60239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3290,13 +3287,13 @@
         <v>33842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -3305,13 +3302,13 @@
         <v>94081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3323,13 @@
         <v>215225</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>127</v>
@@ -3341,13 +3338,13 @@
         <v>135045</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>331</v>
@@ -3356,18 +3353,18 @@
         <v>350270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3379,13 +3376,13 @@
         <v>78480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3394,13 +3391,13 @@
         <v>44105</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -3409,13 +3406,13 @@
         <v>122585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3427,13 @@
         <v>41309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3445,13 +3442,13 @@
         <v>32269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -3460,13 +3457,13 @@
         <v>73578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3478,13 @@
         <v>74524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -3496,13 +3493,13 @@
         <v>48158</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -3511,13 +3508,13 @@
         <v>122682</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3529,13 @@
         <v>83839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -3547,13 +3544,13 @@
         <v>60176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -3562,13 +3559,13 @@
         <v>144014</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3580,13 @@
         <v>128520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -3598,13 +3595,13 @@
         <v>82556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -3613,13 +3610,13 @@
         <v>211077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3631,13 @@
         <v>406672</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>242</v>
@@ -3649,13 +3646,13 @@
         <v>267264</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>616</v>
@@ -3664,18 +3661,18 @@
         <v>673936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3687,13 +3684,13 @@
         <v>53100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3702,13 +3699,13 @@
         <v>30907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -3717,13 +3714,13 @@
         <v>84008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3735,13 @@
         <v>29150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3753,13 +3750,13 @@
         <v>26037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3768,13 +3765,13 @@
         <v>55188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3786,13 @@
         <v>52335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -3804,13 +3801,13 @@
         <v>41987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -3819,13 +3816,13 @@
         <v>94322</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3837,13 @@
         <v>70566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3855,13 +3852,13 @@
         <v>30375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -3870,13 +3867,13 @@
         <v>100941</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3888,13 @@
         <v>115074</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -3906,13 +3903,13 @@
         <v>82955</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>177</v>
@@ -3921,13 +3918,13 @@
         <v>198029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3939,13 @@
         <v>320225</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>190</v>
@@ -3957,13 +3954,13 @@
         <v>212262</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>480</v>
@@ -3972,18 +3969,18 @@
         <v>532488</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3995,13 +3992,13 @@
         <v>64436</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -4010,13 +4007,13 @@
         <v>43970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -4025,13 +4022,13 @@
         <v>108406</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4043,13 @@
         <v>46468</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4061,13 +4058,13 @@
         <v>29458</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -4079,10 +4076,10 @@
         <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4094,13 @@
         <v>99670</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -4112,13 +4109,13 @@
         <v>69448</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4127,13 +4124,13 @@
         <v>169118</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4145,13 @@
         <v>106927</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -4163,13 +4160,13 @@
         <v>63771</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -4178,13 +4175,13 @@
         <v>170698</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4196,13 @@
         <v>95589</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>87</v>
@@ -4214,13 +4211,13 @@
         <v>93791</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>178</v>
@@ -4250,13 +4247,13 @@
         <v>413091</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>287</v>
@@ -4265,13 +4262,13 @@
         <v>300438</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>686</v>
@@ -4280,13 +4277,13 @@
         <v>713529</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4300,13 @@
         <v>256462</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>141</v>
@@ -4318,13 +4315,13 @@
         <v>153681</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>384</v>
@@ -4333,13 +4330,13 @@
         <v>410143</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4351,13 @@
         <v>160687</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>105</v>
@@ -4375,7 +4372,7 @@
         <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>255</v>
@@ -4384,13 +4381,13 @@
         <v>272538</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4402,13 @@
         <v>280786</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>181</v>
@@ -4420,13 +4417,13 @@
         <v>196190</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>451</v>
@@ -4435,13 +4432,13 @@
         <v>476976</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4453,13 @@
         <v>299887</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>165</v>
@@ -4471,13 +4468,13 @@
         <v>177644</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>447</v>
@@ -4486,13 +4483,13 @@
         <v>477531</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4555,13 @@
         <v>1406946</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>867</v>
@@ -4573,13 +4570,13 @@
         <v>939162</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2188</v>
@@ -4588,13 +4585,13 @@
         <v>2346108</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59901CC2-C131-4DBA-9255-900204477B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD9E678-867D-4A23-A09E-2E2E5D3A0A37}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4759,13 +4756,13 @@
         <v>6112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4774,10 +4771,10 @@
         <v>15534</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>285</v>
@@ -4801,7 +4798,7 @@
         <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4810,13 +4807,13 @@
         <v>5276</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4825,7 +4822,7 @@
         <v>13339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>292</v>
@@ -4999,13 +4996,13 @@
         <v>44021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5014,13 +5011,13 @@
         <v>29891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -5029,18 +5026,18 @@
         <v>73912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5058,7 +5055,7 @@
         <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5067,13 +5064,13 @@
         <v>24171</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5082,13 +5079,13 @@
         <v>60202</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5100,13 @@
         <v>33519</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -5118,13 +5115,13 @@
         <v>31198</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -5133,13 +5130,13 @@
         <v>64717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5151,13 @@
         <v>48500</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5169,13 +5166,13 @@
         <v>30933</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -5184,7 +5181,7 @@
         <v>79433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>343</v>
@@ -5205,13 +5202,13 @@
         <v>43081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5220,10 +5217,10 @@
         <v>27554</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>349</v>
@@ -5238,10 +5235,10 @@
         <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5253,13 @@
         <v>38138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5271,13 +5268,13 @@
         <v>23621</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5286,13 +5283,13 @@
         <v>61759</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5304,13 @@
         <v>199269</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5322,13 +5319,13 @@
         <v>137478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>330</v>
@@ -5337,18 +5334,18 @@
         <v>336747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5360,13 +5357,13 @@
         <v>82910</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5375,13 +5372,13 @@
         <v>40751</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -5390,13 +5387,13 @@
         <v>123661</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5408,13 @@
         <v>75411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5426,13 +5423,13 @@
         <v>36586</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -5441,13 +5438,13 @@
         <v>111997</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5459,13 @@
         <v>78110</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -5477,13 +5474,13 @@
         <v>64233</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M18" s="7">
         <v>132</v>
@@ -5492,13 +5489,13 @@
         <v>142343</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,7 +5510,7 @@
         <v>95822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>381</v>
@@ -5615,13 +5612,13 @@
         <v>414041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5630,13 +5627,13 @@
         <v>273771</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>639</v>
@@ -5645,18 +5642,18 @@
         <v>687812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5698,7 +5695,7 @@
         <v>103686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>404</v>
@@ -5719,13 +5716,13 @@
         <v>54948</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5734,13 +5731,13 @@
         <v>37339</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -5749,13 +5746,13 @@
         <v>92287</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5788,7 @@
         <v>417</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>159</v>
@@ -5800,13 +5797,13 @@
         <v>170722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5818,13 @@
         <v>74372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5836,10 +5833,10 @@
         <v>52090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>425</v>
@@ -5872,7 +5869,7 @@
         <v>61302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>429</v>
@@ -5902,13 +5899,13 @@
         <v>141222</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5920,13 @@
         <v>363820</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -5938,13 +5935,13 @@
         <v>270558</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -5953,18 +5950,18 @@
         <v>634378</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5976,13 +5973,13 @@
         <v>101657</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -5991,13 +5988,13 @@
         <v>62165</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>156</v>
@@ -6006,13 +6003,13 @@
         <v>163822</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6024,13 @@
         <v>56751</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -6042,13 +6039,13 @@
         <v>43824</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -6057,13 +6054,13 @@
         <v>100574</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,7 +6075,7 @@
         <v>79997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>452</v>
@@ -6108,13 +6105,13 @@
         <v>148382</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>457</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6126,13 @@
         <v>72104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -6144,13 +6141,13 @@
         <v>59215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -6159,13 +6156,13 @@
         <v>131319</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>255</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6177,13 @@
         <v>90662</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>465</v>
+        <v>266</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>86</v>
@@ -6195,13 +6192,13 @@
         <v>91885</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>176</v>
@@ -6210,13 +6207,13 @@
         <v>182548</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6228,13 @@
         <v>401171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>307</v>
@@ -6246,13 +6243,13 @@
         <v>325474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>700</v>
@@ -6261,13 +6258,13 @@
         <v>726645</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6281,13 @@
         <v>304746</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -6299,13 +6296,13 @@
         <v>162160</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M34" s="7">
         <v>441</v>
@@ -6314,13 +6311,13 @@
         <v>466905</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>479</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6332,13 @@
         <v>228692</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -6350,13 +6347,13 @@
         <v>154223</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M35" s="7">
         <v>363</v>
@@ -6365,13 +6362,13 @@
         <v>382914</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6383,13 @@
         <v>307060</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>489</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>240</v>
@@ -6404,10 +6401,10 @@
         <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>68</v>
+        <v>492</v>
       </c>
       <c r="M36" s="7">
         <v>524</v>
@@ -6416,13 +6413,13 @@
         <v>552393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>74</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6434,13 @@
         <v>298570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6452,13 +6449,13 @@
         <v>194739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>455</v>
+        <v>500</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>75</v>
       </c>
       <c r="M37" s="7">
         <v>472</v>
@@ -6467,13 +6464,13 @@
         <v>493309</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6485,13 @@
         <v>283255</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H38" s="7">
         <v>274</v>
@@ -6506,10 +6503,10 @@
         <v>413</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M38" s="7">
         <v>536</v>
@@ -6518,13 +6515,13 @@
         <v>563972</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6536,13 @@
         <v>1422322</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>1013</v>
@@ -6554,13 +6551,13 @@
         <v>1037172</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>2336</v>
@@ -6569,13 +6566,13 @@
         <v>2459494</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35772B97-C4A5-4C97-A32E-5AE8B1D95081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E0404-B5A7-49C0-96A8-BD5FAF271940}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6618,7 +6615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6725,13 +6722,13 @@
         <v>8249</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6740,13 +6737,13 @@
         <v>2524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>516</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6755,13 +6752,13 @@
         <v>10773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6773,13 @@
         <v>1017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6791,13 +6788,13 @@
         <v>1111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>525</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6806,10 +6803,10 @@
         <v>2129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>73</v>
+        <v>526</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>425</v>
@@ -6827,13 +6824,13 @@
         <v>1220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6842,13 +6839,13 @@
         <v>1348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6857,13 +6854,13 @@
         <v>2568</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,10 +6878,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>536</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6893,13 +6890,13 @@
         <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>529</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6908,13 +6905,13 @@
         <v>720</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6926,13 @@
         <v>4899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6944,13 +6941,13 @@
         <v>2700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6959,13 +6956,13 @@
         <v>7598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6977,13 @@
         <v>15385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -6995,13 +6992,13 @@
         <v>8404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -7010,18 +7007,18 @@
         <v>23789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7033,13 +7030,13 @@
         <v>13804</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>408</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7048,13 +7045,13 @@
         <v>10632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -7063,13 +7060,13 @@
         <v>24436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>546</v>
+        <v>412</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>547</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7081,13 @@
         <v>14052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>554</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7099,13 +7096,13 @@
         <v>3909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7114,13 +7111,13 @@
         <v>17961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7132,13 @@
         <v>14885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -7150,13 +7147,13 @@
         <v>19418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -7165,13 +7162,13 @@
         <v>34303</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7183,13 @@
         <v>10636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -7201,13 +7198,13 @@
         <v>12504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>572</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -7216,13 +7213,13 @@
         <v>23140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7234,13 @@
         <v>21169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -7252,13 +7249,13 @@
         <v>18147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -7267,13 +7264,13 @@
         <v>39316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7285,13 @@
         <v>74546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -7303,13 +7300,13 @@
         <v>64610</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>154</v>
@@ -7318,18 +7315,18 @@
         <v>139156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7341,13 +7338,13 @@
         <v>46174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7356,13 +7353,13 @@
         <v>25621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>586</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -7371,13 +7368,13 @@
         <v>71795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,10 +7389,10 @@
         <v>24988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>50</v>
@@ -7407,13 +7404,13 @@
         <v>23110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -7422,13 +7419,13 @@
         <v>48098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7440,13 @@
         <v>45164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>496</v>
+        <v>602</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -7458,13 +7455,13 @@
         <v>32456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -7473,13 +7470,13 @@
         <v>77620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>461</v>
+        <v>606</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>607</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7491,13 @@
         <v>71969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7509,13 +7506,13 @@
         <v>20192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -7524,13 +7521,13 @@
         <v>92162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>610</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7542,13 @@
         <v>23348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7560,13 +7557,13 @@
         <v>27739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -7575,13 +7572,13 @@
         <v>51086</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,13 +7593,13 @@
         <v>211642</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -7611,13 +7608,13 @@
         <v>129119</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>308</v>
@@ -7626,18 +7623,18 @@
         <v>340761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7649,13 +7646,13 @@
         <v>24705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>625</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -7664,13 +7661,13 @@
         <v>18354</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -7679,13 +7676,13 @@
         <v>43059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>630</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7697,13 @@
         <v>16625</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7715,13 +7712,13 @@
         <v>18840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -7730,13 +7727,13 @@
         <v>35465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7748,13 @@
         <v>19312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>634</v>
+        <v>257</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>305</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -7766,13 +7763,13 @@
         <v>22367</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7781,13 +7778,13 @@
         <v>41679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7799,13 @@
         <v>13581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7817,10 +7814,10 @@
         <v>10168</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>24</v>
@@ -7832,13 +7829,13 @@
         <v>23748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>648</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7850,13 @@
         <v>6883</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>650</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>652</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -7868,13 +7865,13 @@
         <v>19767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>653</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7883,7 +7880,7 @@
         <v>26650</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>656</v>
+        <v>86</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>657</v>
@@ -7904,13 +7901,13 @@
         <v>81105</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -7919,13 +7916,13 @@
         <v>89496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>180</v>
@@ -7934,18 +7931,18 @@
         <v>170601</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7972,13 +7969,13 @@
         <v>30551</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="M28" s="7">
         <v>86</v>
@@ -7987,13 +7984,13 @@
         <v>81919</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +8005,13 @@
         <v>20981</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8023,13 +8020,13 @@
         <v>11424</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -8038,13 +8035,13 @@
         <v>32405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>671</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8056,7 @@
         <v>19336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>672</v>
@@ -8095,7 +8092,7 @@
         <v>678</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8107,13 @@
         <v>10950</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -8125,13 +8122,13 @@
         <v>15794</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -8140,13 +8137,13 @@
         <v>26744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>481</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8158,13 @@
         <v>10450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -8176,13 +8173,13 @@
         <v>9565</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>691</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -8191,13 +8188,13 @@
         <v>20015</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,13 +8209,13 @@
         <v>113085</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>128</v>
@@ -8227,13 +8224,13 @@
         <v>94642</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -8242,13 +8239,13 @@
         <v>207727</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8262,13 @@
         <v>144300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -8280,13 +8277,13 @@
         <v>87683</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -8295,10 +8292,10 @@
         <v>231982</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>700</v>
+        <v>98</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>701</v>
@@ -8346,13 +8343,13 @@
         <v>136058</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>708</v>
+        <v>108</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>706</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>709</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8364,13 @@
         <v>99916</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>708</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -8382,13 +8379,13 @@
         <v>102898</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="M36" s="7">
         <v>238</v>
@@ -8397,13 +8394,13 @@
         <v>202815</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8415,13 @@
         <v>107136</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="H37" s="7">
         <v>79</v>
@@ -8433,13 +8430,13 @@
         <v>59378</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>719</v>
       </c>
       <c r="M37" s="7">
         <v>133</v>
@@ -8448,13 +8445,13 @@
         <v>166514</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8466,13 @@
         <v>66748</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>724</v>
       </c>
       <c r="H38" s="7">
         <v>93</v>
@@ -8484,13 +8481,13 @@
         <v>77918</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="M38" s="7">
         <v>143</v>
@@ -8499,13 +8496,13 @@
         <v>144666</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>345</v>
+        <v>727</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8517,13 @@
         <v>495763</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8535,13 +8532,13 @@
         <v>386271</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>904</v>
@@ -8550,13 +8547,13 @@
         <v>882034</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6706-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8F3799-6C60-4EFE-BE4D-5775FE6E85B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD1C982-666A-4007-8A61-02F5AE8EB8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D55A4D0-88DC-4843-B211-7104100D78F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69AD6AAE-1601-4B1C-94A6-D654B5476518}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>25,66%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>22,03%</t>
@@ -88,16 +88,16 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>45,85%</t>
+    <t>43,06%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,2125 +106,2101 @@
     <t>10,64%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>24,21%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>19,52%</t>
+    <t>12,92%</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5FDB71-FF2F-4E75-BBC6-72C5BF0395BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C594776-4A06-4C74-9A4E-3DD1398113D5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3454,7 +3430,7 @@
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>73578</v>
+        <v>73579</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -3556,16 +3532,16 @@
         <v>129</v>
       </c>
       <c r="N19" s="7">
-        <v>144014</v>
+        <v>144015</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3556,13 @@
         <v>128520</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -3595,13 +3571,13 @@
         <v>82556</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>193</v>
@@ -3610,13 +3586,13 @@
         <v>211077</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3634,7 @@
         <v>616</v>
       </c>
       <c r="N21" s="7">
-        <v>673936</v>
+        <v>673937</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -3672,7 +3648,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3684,13 +3660,13 @@
         <v>53100</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3699,13 +3675,13 @@
         <v>30907</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -3714,13 +3690,13 @@
         <v>84008</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3711,13 @@
         <v>29150</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3750,13 +3726,13 @@
         <v>26037</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3765,13 +3741,13 @@
         <v>55188</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3762,13 @@
         <v>52335</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -3801,13 +3777,13 @@
         <v>41987</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -3816,13 +3792,13 @@
         <v>94322</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3813,13 @@
         <v>70566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3852,13 +3828,13 @@
         <v>30375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -3867,13 +3843,13 @@
         <v>100941</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3864,13 @@
         <v>115074</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -3903,10 +3879,10 @@
         <v>82955</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>191</v>
@@ -3992,7 +3968,7 @@
         <v>64436</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>196</v>
@@ -4049,7 +4025,7 @@
         <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4058,13 +4034,13 @@
         <v>29458</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -4076,10 +4052,10 @@
         <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4070,13 @@
         <v>99670</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -4109,13 +4085,13 @@
         <v>69448</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>167</v>
@@ -4124,13 +4100,13 @@
         <v>169118</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4121,13 @@
         <v>106927</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -4160,13 +4136,13 @@
         <v>63771</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -4175,13 +4151,13 @@
         <v>170698</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4172,13 @@
         <v>95589</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>87</v>
@@ -4211,13 +4187,13 @@
         <v>93791</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>178</v>
@@ -4300,13 +4276,13 @@
         <v>256462</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>141</v>
@@ -4315,13 +4291,13 @@
         <v>153681</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>384</v>
@@ -4330,13 +4306,13 @@
         <v>410143</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4327,13 @@
         <v>160687</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>105</v>
@@ -4366,13 +4342,13 @@
         <v>111852</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="M35" s="7">
         <v>255</v>
@@ -4417,10 +4393,10 @@
         <v>196190</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>257</v>
@@ -4453,13 +4429,13 @@
         <v>299887</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>165</v>
@@ -4468,13 +4444,13 @@
         <v>177644</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>447</v>
@@ -4483,13 +4459,13 @@
         <v>477531</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4480,13 @@
         <v>409124</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="H38" s="7">
         <v>275</v>
@@ -4519,13 +4495,13 @@
         <v>299795</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>651</v>
@@ -4534,13 +4510,13 @@
         <v>708919</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4572,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD9E678-867D-4A23-A09E-2E2E5D3A0A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46FC2AC-4012-4E30-A81F-2D9EC0C19142}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4741,13 +4717,13 @@
         <v>9422</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4756,13 +4732,13 @@
         <v>6112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4771,13 +4747,13 @@
         <v>15534</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4768,13 @@
         <v>8064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4807,13 +4783,13 @@
         <v>5276</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4822,13 +4798,13 @@
         <v>13339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4819,13 @@
         <v>1980</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4858,13 +4834,13 @@
         <v>9533</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -4873,13 +4849,13 @@
         <v>11513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4870,13 @@
         <v>13191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4909,13 +4885,13 @@
         <v>4575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4924,13 +4900,13 @@
         <v>17766</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4921,13 @@
         <v>11364</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4960,13 +4936,13 @@
         <v>4395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4975,13 +4951,13 @@
         <v>15760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5025,13 @@
         <v>36031</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5064,13 +5040,13 @@
         <v>24171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -5079,13 +5055,13 @@
         <v>60202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5076,13 @@
         <v>33519</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -5115,13 +5091,13 @@
         <v>31198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -5130,13 +5106,13 @@
         <v>64717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5127,13 @@
         <v>48500</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -5166,13 +5142,13 @@
         <v>30933</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -5181,13 +5157,13 @@
         <v>79433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5178,7 @@
         <v>43081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>346</v>
@@ -5220,10 +5196,10 @@
         <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -5232,13 +5208,13 @@
         <v>70636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5229,13 @@
         <v>38138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5268,13 +5244,13 @@
         <v>23621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -5283,13 +5259,13 @@
         <v>61759</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5333,13 @@
         <v>82910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5372,13 +5348,13 @@
         <v>40751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -5387,13 +5363,13 @@
         <v>123661</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5384,13 @@
         <v>75411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5423,13 +5399,13 @@
         <v>36586</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -5438,13 +5414,13 @@
         <v>111997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5435,7 @@
         <v>78110</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>374</v>
@@ -5489,10 +5465,10 @@
         <v>142343</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>380</v>
@@ -5510,7 +5486,7 @@
         <v>95822</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>381</v>
@@ -5653,7 +5629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5695,13 +5671,13 @@
         <v>103686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5692,13 @@
         <v>54948</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5737,7 +5713,7 @@
         <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -5746,13 +5722,13 @@
         <v>92287</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5743,13 @@
         <v>98473</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -5782,13 +5758,13 @@
         <v>72249</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>159</v>
@@ -5797,13 +5773,13 @@
         <v>170722</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5794,13 @@
         <v>74372</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5833,13 +5809,13 @@
         <v>52090</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -5848,13 +5824,13 @@
         <v>126462</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,7 +5845,7 @@
         <v>61302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>429</v>
@@ -5899,13 +5875,13 @@
         <v>141222</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>215</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5949,13 @@
         <v>101657</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>58</v>
@@ -5988,13 +5964,13 @@
         <v>62165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>262</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>156</v>
@@ -6003,13 +5979,13 @@
         <v>163822</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>220</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6000,13 @@
         <v>56751</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -6039,13 +6015,13 @@
         <v>43824</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -6054,13 +6030,13 @@
         <v>100574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6051,13 @@
         <v>79997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>66</v>
@@ -6090,13 +6066,13 @@
         <v>68384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>143</v>
@@ -6105,13 +6081,13 @@
         <v>148382</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6102,13 @@
         <v>72104</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>461</v>
+        <v>269</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -6144,10 +6120,10 @@
         <v>113</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="M31" s="7">
         <v>130</v>
@@ -6156,13 +6132,13 @@
         <v>131319</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6153,13 @@
         <v>90662</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>86</v>
@@ -6192,13 +6168,13 @@
         <v>91885</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>176</v>
@@ -6207,10 +6183,10 @@
         <v>182548</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>473</v>
@@ -6284,10 +6260,10 @@
         <v>474</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -6296,13 +6272,13 @@
         <v>162160</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M34" s="7">
         <v>441</v>
@@ -6311,13 +6287,13 @@
         <v>466905</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6308,13 @@
         <v>228692</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>358</v>
+        <v>482</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>151</v>
@@ -6347,13 +6323,13 @@
         <v>154223</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>363</v>
@@ -6362,13 +6338,13 @@
         <v>382914</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6359,13 @@
         <v>307060</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>240</v>
@@ -6401,10 +6377,10 @@
         <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>524</v>
@@ -6413,13 +6389,13 @@
         <v>552393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6410,13 @@
         <v>298570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>497</v>
+        <v>96</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6449,13 +6425,13 @@
         <v>194739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>499</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M37" s="7">
         <v>472</v>
@@ -6464,13 +6440,13 @@
         <v>493309</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6461,13 @@
         <v>283255</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H38" s="7">
         <v>274</v>
@@ -6500,13 +6476,13 @@
         <v>280717</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M38" s="7">
         <v>536</v>
@@ -6515,13 +6491,13 @@
         <v>563972</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,7 +6553,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6598,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E0404-B5A7-49C0-96A8-BD5FAF271940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AC4605-DD8D-4E59-84A4-5364D2BB5CC1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6615,7 +6591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6722,13 +6698,13 @@
         <v>8249</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6737,13 +6713,13 @@
         <v>2524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6752,13 +6728,13 @@
         <v>10773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6749,13 @@
         <v>1017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6788,13 +6764,13 @@
         <v>1111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>523</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6803,13 +6779,13 @@
         <v>2129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>526</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6800,13 @@
         <v>1220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6839,13 +6815,13 @@
         <v>1348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>530</v>
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6854,13 +6830,13 @@
         <v>2568</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,10 +6854,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6890,13 +6866,13 @@
         <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>532</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6905,13 +6881,13 @@
         <v>720</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6902,13 @@
         <v>4899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6941,13 +6917,13 @@
         <v>2700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6956,13 +6932,13 @@
         <v>7598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>545</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>546</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7006,13 @@
         <v>13804</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7045,13 +7021,13 @@
         <v>10632</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -7060,13 +7036,13 @@
         <v>24436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7057,13 @@
         <v>14052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7096,13 +7072,13 @@
         <v>3909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7111,13 +7087,13 @@
         <v>17961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>558</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7108,13 @@
         <v>14885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -7147,13 +7123,13 @@
         <v>19418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -7162,13 +7138,13 @@
         <v>34303</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7159,13 @@
         <v>10636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -7198,13 +7174,13 @@
         <v>12504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>573</v>
+        <v>452</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -7213,13 +7189,13 @@
         <v>23140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>575</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>577</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,13 +7210,13 @@
         <v>21169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>572</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -7249,13 +7225,13 @@
         <v>18147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>581</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -7264,13 +7240,13 @@
         <v>39316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7314,13 @@
         <v>46174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7353,13 +7329,13 @@
         <v>25621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -7368,13 +7344,13 @@
         <v>71795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7365,13 @@
         <v>24988</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>590</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -7404,13 +7380,13 @@
         <v>23110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>598</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -7419,13 +7395,13 @@
         <v>48098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7416,13 @@
         <v>45164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -7455,13 +7431,13 @@
         <v>32456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>599</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>333</v>
+        <v>478</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -7470,13 +7446,13 @@
         <v>77620</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>606</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>607</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7467,13 @@
         <v>71969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -7506,13 +7482,13 @@
         <v>20192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>614</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -7521,13 +7497,13 @@
         <v>92162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>608</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7518,13 @@
         <v>23348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>612</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -7557,13 +7533,13 @@
         <v>27739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>619</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>613</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -7572,13 +7548,13 @@
         <v>51086</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>622</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,7 +7610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7646,13 +7622,13 @@
         <v>24705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>625</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -7661,13 +7637,13 @@
         <v>18354</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -7676,13 +7652,13 @@
         <v>43059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7673,13 @@
         <v>16625</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7712,13 +7688,13 @@
         <v>18840</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>628</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -7727,13 +7703,13 @@
         <v>35465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7724,13 @@
         <v>19312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>257</v>
+        <v>633</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>305</v>
+        <v>634</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -7763,13 +7739,13 @@
         <v>22367</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>642</v>
+        <v>254</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -7778,13 +7754,13 @@
         <v>41679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>644</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7775,13 @@
         <v>13581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7814,13 +7790,13 @@
         <v>10168</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>24</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -7829,13 +7805,13 @@
         <v>23748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7826,13 @@
         <v>6883</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>647</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -7865,13 +7841,13 @@
         <v>19767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>649</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -7880,13 +7856,13 @@
         <v>26650</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>86</v>
+        <v>652</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7930,13 @@
         <v>51368</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -7969,13 +7945,13 @@
         <v>30551</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>658</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M28" s="7">
         <v>86</v>
@@ -7984,13 +7960,13 @@
         <v>81919</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>58</v>
+        <v>662</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7981,13 @@
         <v>20981</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>667</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -8023,10 +7999,10 @@
         <v>119</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>670</v>
+        <v>340</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -8035,13 +8011,13 @@
         <v>32405</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8032,13 @@
         <v>19336</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>539</v>
+        <v>668</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -8071,13 +8047,13 @@
         <v>27308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>674</v>
+        <v>614</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>675</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -8086,13 +8062,13 @@
         <v>46645</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>678</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8083,13 @@
         <v>10950</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -8122,13 +8098,13 @@
         <v>15794</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>683</v>
+        <v>352</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -8137,13 +8113,13 @@
         <v>26744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8134,13 @@
         <v>10450</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>354</v>
+        <v>684</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -8173,13 +8149,13 @@
         <v>9565</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>687</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
@@ -8188,13 +8164,13 @@
         <v>20015</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8238,13 @@
         <v>144300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>85</v>
+        <v>692</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -8277,13 +8253,13 @@
         <v>87683</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>560</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>699</v>
+        <v>103</v>
       </c>
       <c r="M34" s="7">
         <v>230</v>
@@ -8292,13 +8268,13 @@
         <v>231982</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>98</v>
+        <v>696</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>701</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8289,13 @@
         <v>77663</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -8328,13 +8304,13 @@
         <v>58394</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="M35" s="7">
         <v>160</v>
@@ -8343,13 +8319,13 @@
         <v>136058</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>108</v>
+        <v>703</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8340,13 @@
         <v>99916</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>709</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -8379,13 +8355,13 @@
         <v>102898</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>467</v>
+        <v>708</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M36" s="7">
         <v>238</v>
@@ -8394,13 +8370,13 @@
         <v>202815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>712</v>
+        <v>516</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>96</v>
+        <v>638</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8391,13 @@
         <v>107136</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>714</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>449</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H37" s="7">
         <v>79</v>
@@ -8430,13 +8406,13 @@
         <v>59378</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>718</v>
+        <v>38</v>
       </c>
       <c r="M37" s="7">
         <v>133</v>
@@ -8445,13 +8421,13 @@
         <v>166514</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>719</v>
+        <v>96</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8442,13 @@
         <v>66748</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="H38" s="7">
         <v>93</v>
@@ -8481,13 +8457,13 @@
         <v>77918</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>725</v>
+        <v>170</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="M38" s="7">
         <v>143</v>
@@ -8496,13 +8472,13 @@
         <v>144666</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>429</v>
+        <v>720</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,7 +8534,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
